--- a/results/comparaison/GM/depolarization/mean_normalized.xlsx
+++ b/results/comparaison/GM/depolarization/mean_normalized.xlsx
@@ -983,412 +983,526 @@
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3">
+      <c r="C3">
+        <v>1.018212997676519</v>
+      </c>
+      <c r="D3">
+        <v>1.030938946745165</v>
+      </c>
+      <c r="E3">
         <v>1.027753131998823</v>
       </c>
-      <c r="C3">
+      <c r="H3">
+        <v>1.031025173237025</v>
+      </c>
+      <c r="I3">
+        <v>1.012638478463404</v>
+      </c>
+      <c r="J3">
         <v>1.018856785498184</v>
       </c>
-      <c r="D3">
-        <v>1.024317499691915</v>
-      </c>
-      <c r="E3">
-        <v>1.032848017699726</v>
-      </c>
-      <c r="F3">
+      <c r="K3">
         <v>1.059194688763202</v>
       </c>
-      <c r="G3">
-        <v>1.031344106826364</v>
-      </c>
-      <c r="H3">
+      <c r="L3">
+        <v>1.058805259394212</v>
+      </c>
+      <c r="M3">
+        <v>1.048118551944805</v>
+      </c>
+      <c r="N3">
         <v>1.022417390722108</v>
       </c>
-      <c r="I3">
+      <c r="O3">
         <v>1.035001258490333</v>
       </c>
-      <c r="L3">
-        <v>1.032217179387367</v>
-      </c>
-      <c r="N3">
-        <v>1.01925025711297</v>
-      </c>
       <c r="P3">
-        <v>1.056253613969081</v>
-      </c>
-      <c r="R3">
-        <v>1.035142406821561</v>
-      </c>
-      <c r="S3">
-        <v>1.049914194369939</v>
+        <v>1.055002590656455</v>
+      </c>
+      <c r="Q3">
+        <v>1.019086112627946</v>
       </c>
       <c r="T3">
-        <v>1.002231108221505</v>
+        <v>1.01140979047002</v>
+      </c>
+      <c r="U3">
+        <v>1.082749276038408</v>
       </c>
       <c r="V3">
-        <v>1.032522076258035</v>
-      </c>
-      <c r="X3">
-        <v>1.031025173237025</v>
+        <v>1.02762257596481</v>
+      </c>
+      <c r="W3">
+        <v>1.010147126480016</v>
       </c>
       <c r="Y3">
-        <v>1.05902696011392</v>
+        <v>1.022755623651047</v>
       </c>
       <c r="Z3">
-        <v>1.012638478463404</v>
-      </c>
-      <c r="AB3">
-        <v>0.9725962700510337</v>
+        <v>1.051058899869286</v>
+      </c>
+      <c r="AA3">
+        <v>1.03804569790467</v>
       </c>
       <c r="AC3">
-        <v>0.9976797596279482</v>
+        <v>1.010616567135662</v>
       </c>
       <c r="AD3">
-        <v>1.037623754431356</v>
-      </c>
-      <c r="AE3">
-        <v>1.01701801872775</v>
+        <v>1.069154033157229</v>
       </c>
       <c r="AF3">
-        <v>1.052059169516512</v>
+        <v>1.02379286540288</v>
       </c>
       <c r="AG3">
-        <v>0.9661218439808057</v>
-      </c>
-      <c r="AH3">
-        <v>0.9948290973247502</v>
+        <v>1.119807080275515</v>
       </c>
       <c r="AI3">
-        <v>1.104060944049673</v>
+        <v>1.092728187618593</v>
       </c>
       <c r="AJ3">
-        <v>1.043853344560807</v>
+        <v>1.048073396792056</v>
+      </c>
+      <c r="AK3">
+        <v>1.033630177142335</v>
       </c>
       <c r="AL3">
-        <v>0.9831561854626261</v>
+        <v>1.075402104104378</v>
+      </c>
+      <c r="AM3">
+        <v>0.9661996886950417</v>
       </c>
       <c r="AN3">
-        <v>1.06890617424775</v>
+        <v>1.097130102910041</v>
       </c>
       <c r="AO3">
-        <v>1.020254016148546</v>
+        <v>1.078816706022091</v>
       </c>
       <c r="AP3">
-        <v>1.029202486710387</v>
+        <v>1.030766929297492</v>
       </c>
       <c r="AQ3">
-        <v>1.080433873789546</v>
+        <v>1.015331984532153</v>
       </c>
       <c r="AR3">
-        <v>1.08260327495446</v>
+        <v>1.032160972521293</v>
       </c>
       <c r="AT3">
-        <v>1.009397991569296</v>
+        <v>1.065084122965026</v>
+      </c>
+      <c r="AU3">
+        <v>1.023755019447615</v>
       </c>
       <c r="AV3">
-        <v>0.9975876921240115</v>
+        <v>1.012509366404199</v>
       </c>
       <c r="AW3">
-        <v>1.116113281672082</v>
+        <v>1.090466451915548</v>
       </c>
       <c r="AX3">
-        <v>1.020991972344686</v>
+        <v>0.9873202275031357</v>
       </c>
       <c r="AY3">
-        <v>0.9293633560057579</v>
-      </c>
-      <c r="AZ3">
-        <v>1.048497361481142</v>
+        <v>1.199899179935818</v>
       </c>
       <c r="BA3">
-        <v>1.057656357786484</v>
+        <v>1.076022672046674</v>
       </c>
       <c r="BB3">
-        <v>1.042296356915031</v>
+        <v>1.062605747761763</v>
       </c>
       <c r="BC3">
-        <v>1.023217428193735</v>
+        <v>1.066255041499343</v>
       </c>
       <c r="BD3">
-        <v>1.066101378191624</v>
+        <v>1.079261613585128</v>
       </c>
       <c r="BE3">
-        <v>1.068824605979774</v>
+        <v>1.057504119516578</v>
       </c>
       <c r="BF3">
-        <v>1.04602126975574</v>
-      </c>
-      <c r="BG3">
-        <v>1.036265349763577</v>
+        <v>1.051367465437383</v>
       </c>
       <c r="BH3">
-        <v>1.046359222510792</v>
+        <v>1.08608801266894</v>
       </c>
       <c r="BI3">
-        <v>1.048408084091893</v>
+        <v>1.04758349041181</v>
       </c>
       <c r="BJ3">
-        <v>1.078051644574301</v>
+        <v>1.115901636027542</v>
+      </c>
+      <c r="BK3">
+        <v>1.038787564079599</v>
       </c>
       <c r="BL3">
-        <v>1.113933596620146</v>
-      </c>
-      <c r="BM3">
-        <v>1.112431014173909</v>
+        <v>1.091812172225673</v>
+      </c>
+      <c r="BN3">
+        <v>1.128892826524121</v>
+      </c>
+      <c r="BO3">
+        <v>0.9842823047478465</v>
+      </c>
+      <c r="BP3">
+        <v>1.023430803720657</v>
       </c>
       <c r="BQ3">
-        <v>0.9970791730026005</v>
+        <v>1.103833865666489</v>
       </c>
       <c r="BR3">
-        <v>1.12488815741203</v>
+        <v>1.068683980970872</v>
       </c>
       <c r="BS3">
-        <v>1.087892019072612</v>
+        <v>1.097398643308085</v>
       </c>
       <c r="BT3">
-        <v>0.9312055821971909</v>
+        <v>1.118386572087626</v>
       </c>
       <c r="BU3">
-        <v>1.11534855291337</v>
+        <v>1.054464530022674</v>
       </c>
       <c r="BV3">
-        <v>1.035007204914265</v>
+        <v>0.9857287901787776</v>
       </c>
       <c r="BW3">
-        <v>1.087911405405164</v>
+        <v>1.096618317207861</v>
       </c>
       <c r="BX3">
-        <v>1.063272080367684</v>
-      </c>
-      <c r="CA3">
-        <v>0.9948924670988138</v>
+        <v>1.115369390005621</v>
+      </c>
+      <c r="BY3">
+        <v>1.026945390086066</v>
+      </c>
+      <c r="BZ3">
+        <v>1.146908625626147</v>
       </c>
       <c r="CB3">
-        <v>1.019781034690904</v>
+        <v>1.001836971220644</v>
+      </c>
+      <c r="CC3">
+        <v>0.9654038988715747</v>
       </c>
       <c r="CD3">
-        <v>1.069393464361094</v>
+        <v>1.011515445863485</v>
       </c>
       <c r="CE3">
-        <v>1.03849362431112</v>
+        <v>0.9605350741211682</v>
       </c>
       <c r="CF3">
-        <v>1.087416493968175</v>
+        <v>0.9653841950210487</v>
+      </c>
+      <c r="CG3">
+        <v>1.059720259729277</v>
       </c>
       <c r="CH3">
-        <v>1.035339044412514</v>
+        <v>1.02993093687257</v>
+      </c>
+      <c r="CI3">
+        <v>0.939483800480321</v>
       </c>
       <c r="CK3">
-        <v>1.054745682392638</v>
+        <v>1.079547736232547</v>
+      </c>
+      <c r="CL3">
+        <v>1.063522444265276</v>
       </c>
       <c r="CM3">
-        <v>1.05794061252605</v>
+        <v>1.107246153508182</v>
       </c>
       <c r="CN3">
-        <v>1.029257399456602</v>
+        <v>1.000619834646371</v>
+      </c>
+      <c r="CO3">
+        <v>1.058049466845432</v>
       </c>
       <c r="CP3">
-        <v>1.040791709709955</v>
+        <v>1.014509775594371</v>
+      </c>
+      <c r="CQ3">
+        <v>1.17642775086422</v>
+      </c>
+      <c r="CR3">
+        <v>1.033508995564736</v>
       </c>
       <c r="CS3">
-        <v>1.042108699163312</v>
+        <v>1.064724446098752</v>
+      </c>
+      <c r="CT3">
+        <v>0.8914287412150823</v>
+      </c>
+      <c r="CU3">
+        <v>1.063486127975848</v>
+      </c>
+      <c r="CV3">
+        <v>1.070756268612934</v>
+      </c>
+      <c r="CW3">
+        <v>1.005218038787461</v>
       </c>
     </row>
     <row r="4" spans="1:101">
       <c r="A4" s="1">
         <v>2</v>
       </c>
+      <c r="B4">
+        <v>1.051135237283246</v>
+      </c>
       <c r="C4">
+        <v>1.005942060995162</v>
+      </c>
+      <c r="D4">
+        <v>1.023306804564094</v>
+      </c>
+      <c r="E4">
+        <v>1.042422315500152</v>
+      </c>
+      <c r="H4">
+        <v>1.043821875872494</v>
+      </c>
+      <c r="I4">
+        <v>1.014438031636022</v>
+      </c>
+      <c r="J4">
         <v>1.038648618614293</v>
       </c>
-      <c r="D4">
-        <v>1.013448192408533</v>
-      </c>
-      <c r="E4">
-        <v>1.038043801270269</v>
-      </c>
-      <c r="F4">
+      <c r="K4">
         <v>1.064909814247841</v>
       </c>
-      <c r="H4">
+      <c r="L4">
+        <v>1.06944199386636</v>
+      </c>
+      <c r="M4">
+        <v>1.045990449110851</v>
+      </c>
+      <c r="N4">
         <v>1.026453501760188</v>
       </c>
-      <c r="I4">
+      <c r="O4">
         <v>1.005263045907324</v>
       </c>
-      <c r="L4">
-        <v>1.040188972647138</v>
-      </c>
-      <c r="N4">
-        <v>1.016915578286296</v>
+      <c r="P4">
+        <v>1.0607515775903</v>
       </c>
       <c r="Q4">
-        <v>1.007321008300678</v>
-      </c>
-      <c r="R4">
-        <v>1.054682678755492</v>
-      </c>
-      <c r="S4">
-        <v>1.060460408456684</v>
+        <v>1.016533608637688</v>
       </c>
       <c r="T4">
-        <v>0.9763148974859066</v>
+        <v>1.009013296722891</v>
+      </c>
+      <c r="U4">
+        <v>1.083194872158759</v>
       </c>
       <c r="V4">
-        <v>1.022981073543546</v>
+        <v>1.037055209467225</v>
       </c>
       <c r="W4">
-        <v>1.052266445853032</v>
-      </c>
-      <c r="X4">
-        <v>1.043821875872494</v>
-      </c>
-      <c r="Y4">
-        <v>1.062537092862377</v>
+        <v>1.017086502870658</v>
+      </c>
+      <c r="Z4">
+        <v>1.055636847948288</v>
+      </c>
+      <c r="AA4">
+        <v>1.108340518662203</v>
       </c>
       <c r="AC4">
-        <v>1.012849003075409</v>
-      </c>
-      <c r="AE4">
-        <v>1.019908692223768</v>
+        <v>1.090420532121299</v>
+      </c>
+      <c r="AD4">
+        <v>1.064898062699668</v>
       </c>
       <c r="AF4">
-        <v>1.105492253094341</v>
-      </c>
-      <c r="AH4">
-        <v>1.019349173351558</v>
+        <v>1.024491246050334</v>
+      </c>
+      <c r="AG4">
+        <v>1.108408996706688</v>
       </c>
       <c r="AI4">
-        <v>1.106163799065839</v>
+        <v>1.10175926179405</v>
       </c>
       <c r="AJ4">
-        <v>1.045333337448908</v>
+        <v>1.048026544506144</v>
+      </c>
+      <c r="AK4">
+        <v>1.035799125094485</v>
       </c>
       <c r="AL4">
-        <v>1.009165339161672</v>
+        <v>1.082650088823545</v>
+      </c>
+      <c r="AM4">
+        <v>0.9602846397474969</v>
+      </c>
+      <c r="AN4">
+        <v>1.0911405962303</v>
       </c>
       <c r="AO4">
-        <v>1.053310132047163</v>
+        <v>1.072644714760028</v>
       </c>
       <c r="AP4">
-        <v>1.025372672187198</v>
+        <v>1.019370992078743</v>
       </c>
       <c r="AQ4">
-        <v>1.085295847580749</v>
+        <v>1.055540479404034</v>
       </c>
       <c r="AR4">
-        <v>1.083992871641706</v>
-      </c>
-      <c r="AS4">
-        <v>0.9838249542620334</v>
+        <v>1.040302392359387</v>
       </c>
       <c r="AT4">
-        <v>1.062570159962022</v>
+        <v>1.07739728499643</v>
+      </c>
+      <c r="AU4">
+        <v>1.055044577406191</v>
       </c>
       <c r="AV4">
-        <v>1.001167166691656</v>
+        <v>1.018695872481969</v>
       </c>
       <c r="AW4">
-        <v>1.099024271599691</v>
+        <v>1.051468996287151</v>
       </c>
       <c r="AX4">
-        <v>1.044128113383216</v>
+        <v>1.004017065806746</v>
+      </c>
+      <c r="AY4">
+        <v>1.161897214684843</v>
       </c>
       <c r="AZ4">
-        <v>1.065622567682385</v>
+        <v>1.126978084570204</v>
       </c>
       <c r="BA4">
-        <v>1.062652351997054</v>
+        <v>1.080137301030866</v>
       </c>
       <c r="BB4">
-        <v>1.032741958751297</v>
+        <v>1.05761446714014</v>
       </c>
       <c r="BC4">
-        <v>1.013587503634715</v>
+        <v>1.062107082264327</v>
       </c>
       <c r="BD4">
-        <v>1.089974514771682</v>
+        <v>1.063189114528958</v>
       </c>
       <c r="BE4">
-        <v>1.084811492679352</v>
+        <v>1.064982485484268</v>
       </c>
       <c r="BF4">
-        <v>1.041138873042251</v>
-      </c>
-      <c r="BG4">
-        <v>1.010897774203426</v>
+        <v>1.070139926247297</v>
       </c>
       <c r="BH4">
-        <v>1.04235716229621</v>
+        <v>1.089842647947527</v>
       </c>
       <c r="BI4">
-        <v>1.066085679344832</v>
+        <v>1.051270300172495</v>
       </c>
       <c r="BJ4">
-        <v>1.086840092163014</v>
+        <v>1.113349402650395</v>
+      </c>
+      <c r="BK4">
+        <v>1.017169592817941</v>
       </c>
       <c r="BL4">
-        <v>1.105879701290982</v>
+        <v>1.087378612143884</v>
       </c>
       <c r="BM4">
-        <v>1.108954599745113</v>
+        <v>0.9848611977612578</v>
       </c>
       <c r="BN4">
-        <v>1.041430429700068</v>
+        <v>1.115894790508503</v>
       </c>
       <c r="BO4">
-        <v>1.02339544124953</v>
+        <v>0.9429111145810104</v>
+      </c>
+      <c r="BP4">
+        <v>1.065683831182745</v>
+      </c>
+      <c r="BQ4">
+        <v>1.03745553028824</v>
       </c>
       <c r="BR4">
-        <v>1.123645579706902</v>
+        <v>1.049318801371846</v>
       </c>
       <c r="BS4">
-        <v>1.0922311420138</v>
+        <v>1.083920677787023</v>
+      </c>
+      <c r="BT4">
+        <v>1.115451259867262</v>
       </c>
       <c r="BU4">
-        <v>1.10833296403346</v>
+        <v>1.043605843124844</v>
+      </c>
+      <c r="BV4">
+        <v>0.9877460560037428</v>
+      </c>
+      <c r="BW4">
+        <v>1.07275649708115</v>
       </c>
       <c r="BX4">
-        <v>1.04822462205014</v>
+        <v>1.10487576301443</v>
       </c>
       <c r="BY4">
-        <v>1.080663274578183</v>
-      </c>
-      <c r="CA4">
-        <v>0.9695772570232736</v>
+        <v>1.030890559073822</v>
+      </c>
+      <c r="BZ4">
+        <v>1.14602196615173</v>
+      </c>
+      <c r="CB4">
+        <v>0.9797069840149185</v>
+      </c>
+      <c r="CC4">
+        <v>0.9001675993884866</v>
+      </c>
+      <c r="CD4">
+        <v>0.9690405971033987</v>
       </c>
       <c r="CE4">
-        <v>1.003775534988947</v>
+        <v>0.9704312740794369</v>
       </c>
       <c r="CF4">
-        <v>1.052534420616266</v>
+        <v>0.9747284462667659</v>
+      </c>
+      <c r="CG4">
+        <v>1.048102683456017</v>
       </c>
       <c r="CH4">
-        <v>1.005143845077297</v>
+        <v>1.019365243102503</v>
       </c>
       <c r="CI4">
-        <v>0.9999596169474768</v>
+        <v>0.9254301189689346</v>
       </c>
       <c r="CK4">
-        <v>1.039507208337566</v>
+        <v>1.080325104652848</v>
       </c>
       <c r="CL4">
-        <v>1.009216326363294</v>
+        <v>1.054422588065217</v>
       </c>
       <c r="CM4">
-        <v>1.04610145556083</v>
+        <v>1.108772673295523</v>
       </c>
       <c r="CN4">
-        <v>1.021412918200774</v>
+        <v>0.977515630720011</v>
+      </c>
+      <c r="CO4">
+        <v>1.009121696707901</v>
       </c>
       <c r="CP4">
-        <v>1.053965303687737</v>
+        <v>1.031232091292913</v>
+      </c>
+      <c r="CQ4">
+        <v>1.232017644859283</v>
+      </c>
+      <c r="CR4">
+        <v>1.031010103583638</v>
       </c>
       <c r="CS4">
-        <v>1.038799381297656</v>
+        <v>1.005833232427465</v>
+      </c>
+      <c r="CT4">
+        <v>0.721361885977257</v>
       </c>
       <c r="CU4">
-        <v>1.055688470533128</v>
+        <v>1.052620343136729</v>
+      </c>
+      <c r="CV4">
+        <v>1.082067315252065</v>
+      </c>
+      <c r="CW4">
+        <v>1.066402099848568</v>
       </c>
     </row>
     <row r="5" spans="1:101">
@@ -1396,193 +1510,262 @@
         <v>3</v>
       </c>
       <c r="B5">
+        <v>1.060278946885378</v>
+      </c>
+      <c r="C5">
+        <v>1.025202462684616</v>
+      </c>
+      <c r="D5">
+        <v>1.031697313230187</v>
+      </c>
+      <c r="E5">
         <v>1.036332832016557</v>
       </c>
-      <c r="C5">
+      <c r="H5">
+        <v>1.03796607985525</v>
+      </c>
+      <c r="I5">
+        <v>1.01772268044229</v>
+      </c>
+      <c r="J5">
         <v>1.04109232529539</v>
       </c>
-      <c r="D5">
-        <v>1.004027980124903</v>
-      </c>
-      <c r="F5">
+      <c r="K5">
         <v>1.05577078335089</v>
       </c>
-      <c r="G5">
-        <v>1.030382472750583</v>
-      </c>
-      <c r="H5">
+      <c r="L5">
+        <v>1.064389664308102</v>
+      </c>
+      <c r="M5">
+        <v>1.046850942574044</v>
+      </c>
+      <c r="N5">
         <v>1.016621754600454</v>
       </c>
-      <c r="I5">
+      <c r="O5">
         <v>1.040476012589634</v>
       </c>
-      <c r="N5">
-        <v>1.014503654224804</v>
-      </c>
-      <c r="O5">
+      <c r="P5">
+        <v>1.049176353260534</v>
+      </c>
+      <c r="Q5">
+        <v>1.014451458872587</v>
+      </c>
+      <c r="R5">
         <v>1.060002748476602</v>
       </c>
-      <c r="S5">
-        <v>1.051404361228692</v>
-      </c>
-      <c r="T5">
-        <v>1.012123836008048</v>
+      <c r="U5">
+        <v>1.08830302406861</v>
       </c>
       <c r="V5">
-        <v>1.033040021029765</v>
+        <v>1.03988877039951</v>
       </c>
       <c r="W5">
-        <v>1.060543159434616</v>
-      </c>
-      <c r="X5">
-        <v>1.03796607985525</v>
-      </c>
-      <c r="Y5">
-        <v>1.055690800812086</v>
+        <v>1.001685029348021</v>
       </c>
       <c r="Z5">
-        <v>1.01772268044229</v>
-      </c>
-      <c r="AB5">
-        <v>0.9490372125818254</v>
+        <v>1.046602443932271</v>
+      </c>
+      <c r="AA5">
+        <v>1.092563119612621</v>
       </c>
       <c r="AC5">
-        <v>1.0165821765445</v>
-      </c>
-      <c r="AD5">
-        <v>0.9950566665043274</v>
-      </c>
-      <c r="AE5">
-        <v>1.003463895401261</v>
-      </c>
-      <c r="AH5">
-        <v>1.002699050494786</v>
+        <v>0.8488639748280298</v>
+      </c>
+      <c r="AF5">
+        <v>1.014486871904037</v>
+      </c>
+      <c r="AG5">
+        <v>1.098228190825902</v>
       </c>
       <c r="AI5">
-        <v>1.097169420490658</v>
+        <v>1.088413246303085</v>
       </c>
       <c r="AJ5">
-        <v>1.03281125102166</v>
+        <v>1.039471965123434</v>
+      </c>
+      <c r="AK5">
+        <v>1.012431958712639</v>
       </c>
       <c r="AL5">
-        <v>0.9872850591305702</v>
-      </c>
-      <c r="AO5">
-        <v>1.02277461588327</v>
+        <v>1.081782242057854</v>
+      </c>
+      <c r="AM5">
+        <v>0.965758998272719</v>
+      </c>
+      <c r="AN5">
+        <v>1.078607604161108</v>
       </c>
       <c r="AP5">
-        <v>1.016199586500522</v>
+        <v>1.035965375154071</v>
       </c>
       <c r="AQ5">
-        <v>1.080744468009652</v>
+        <v>1.037583783100535</v>
       </c>
       <c r="AR5">
-        <v>1.068167143029468</v>
+        <v>1.031384980631326</v>
       </c>
       <c r="AT5">
-        <v>1.039118323508434</v>
+        <v>1.062872087082112</v>
+      </c>
+      <c r="AU5">
+        <v>1.037077353650044</v>
       </c>
       <c r="AV5">
-        <v>0.9890919875058157</v>
+        <v>1.019994338801898</v>
       </c>
       <c r="AW5">
-        <v>1.111323234186162</v>
+        <v>1.085466551618702</v>
       </c>
       <c r="AX5">
-        <v>1.023663193922365</v>
+        <v>0.9993061941927781</v>
       </c>
       <c r="AY5">
-        <v>0.9400375366441789</v>
+        <v>1.20592841063543</v>
       </c>
       <c r="AZ5">
-        <v>1.07854039222567</v>
+        <v>1.092594761969063</v>
       </c>
       <c r="BA5">
-        <v>1.065343083522008</v>
+        <v>1.087199801964459</v>
       </c>
       <c r="BB5">
-        <v>1.01526112708964</v>
+        <v>1.045174117438524</v>
       </c>
       <c r="BC5">
-        <v>1.026766274847581</v>
+        <v>1.076806955068885</v>
       </c>
       <c r="BD5">
-        <v>1.06896540083973</v>
+        <v>1.03077466574961</v>
       </c>
       <c r="BE5">
-        <v>1.077630269659265</v>
+        <v>1.06592084484563</v>
       </c>
       <c r="BF5">
-        <v>1.034957006718613</v>
+        <v>1.073598630609306</v>
+      </c>
+      <c r="BG5">
+        <v>0.9209059520730454</v>
       </c>
       <c r="BH5">
-        <v>1.043045301155162</v>
+        <v>1.079891428132528</v>
       </c>
       <c r="BI5">
-        <v>1.069343100507856</v>
+        <v>1.056424179232059</v>
       </c>
       <c r="BJ5">
-        <v>1.082355091867947</v>
+        <v>1.105653078458591</v>
+      </c>
+      <c r="BK5">
+        <v>1.003764387128096</v>
       </c>
       <c r="BL5">
-        <v>1.068502585235437</v>
+        <v>1.084505409718748</v>
+      </c>
+      <c r="BM5">
+        <v>0.8898559442651219</v>
+      </c>
+      <c r="BN5">
+        <v>1.113341603968074</v>
+      </c>
+      <c r="BO5">
+        <v>0.924334092273315</v>
       </c>
       <c r="BP5">
-        <v>1.019426029411687</v>
+        <v>1.032855034325906</v>
+      </c>
+      <c r="BQ5">
+        <v>1.040191509846855</v>
       </c>
       <c r="BR5">
-        <v>1.119562287277151</v>
+        <v>1.054376910991002</v>
       </c>
       <c r="BS5">
-        <v>1.093370736751567</v>
+        <v>1.063201987590962</v>
+      </c>
+      <c r="BT5">
+        <v>1.077016713440577</v>
       </c>
       <c r="BU5">
-        <v>1.078678608758473</v>
+        <v>1.042569570233523</v>
       </c>
       <c r="BV5">
-        <v>1.029232253988829</v>
+        <v>1.017292203927716</v>
+      </c>
+      <c r="BW5">
+        <v>1.065921565758258</v>
       </c>
       <c r="BX5">
-        <v>1.043648763823722</v>
+        <v>1.103328723892796</v>
       </c>
       <c r="BY5">
-        <v>1.061791013342524</v>
-      </c>
-      <c r="CA5">
-        <v>0.9699820615915573</v>
+        <v>0.9847534509430175</v>
+      </c>
+      <c r="BZ5">
+        <v>1.160095429444751</v>
+      </c>
+      <c r="CB5">
+        <v>0.9736823189192853</v>
       </c>
       <c r="CC5">
-        <v>0.9293760186677515</v>
+        <v>0.860342697519605</v>
       </c>
       <c r="CD5">
-        <v>1.077333536277469</v>
+        <v>0.9795947413939255</v>
       </c>
       <c r="CE5">
-        <v>1.036170038698018</v>
+        <v>0.9740618149563423</v>
+      </c>
+      <c r="CF5">
+        <v>0.9469894415313742</v>
+      </c>
+      <c r="CG5">
+        <v>1.062468014571372</v>
       </c>
       <c r="CH5">
-        <v>1.03915008927227</v>
+        <v>1.004742843832576</v>
+      </c>
+      <c r="CI5">
+        <v>0.8787169353538477</v>
       </c>
       <c r="CK5">
-        <v>1.053771701523975</v>
+        <v>1.068547024419811</v>
+      </c>
+      <c r="CL5">
+        <v>1.043617789783809</v>
       </c>
       <c r="CM5">
-        <v>1.068142554264344</v>
+        <v>1.096538130425421</v>
       </c>
       <c r="CN5">
-        <v>1.010684200619249</v>
+        <v>0.9860338828965335</v>
+      </c>
+      <c r="CO5">
+        <v>1.04906710763911</v>
       </c>
       <c r="CP5">
-        <v>1.06507595046126</v>
+        <v>1.045764882635503</v>
+      </c>
+      <c r="CQ5">
+        <v>1.240294476361444</v>
+      </c>
+      <c r="CR5">
+        <v>1.011134048209641</v>
       </c>
       <c r="CS5">
-        <v>1.009793384833243</v>
+        <v>0.9718698735279763</v>
+      </c>
+      <c r="CT5">
+        <v>0.830740273549845</v>
       </c>
       <c r="CU5">
-        <v>1.058481044289044</v>
+        <v>1.076364819173585</v>
+      </c>
+      <c r="CV5">
+        <v>1.085900803562691</v>
       </c>
       <c r="CW5">
-        <v>0.9175913155550341</v>
+        <v>1.037357284899451</v>
       </c>
     </row>
     <row r="6" spans="1:101">
@@ -1590,408 +1773,552 @@
         <v>4</v>
       </c>
       <c r="B6">
+        <v>1.070952786967202</v>
+      </c>
+      <c r="D6">
+        <v>1.072550602342319</v>
+      </c>
+      <c r="E6">
         <v>1.041305045222568</v>
       </c>
-      <c r="C6">
+      <c r="F6">
+        <v>1.015809699007349</v>
+      </c>
+      <c r="H6">
+        <v>1.033991602776766</v>
+      </c>
+      <c r="I6">
+        <v>1.031552328827372</v>
+      </c>
+      <c r="J6">
         <v>1.072377370523278</v>
       </c>
-      <c r="D6">
-        <v>1.057438007389311</v>
-      </c>
-      <c r="F6">
+      <c r="K6">
         <v>1.043182610946233</v>
       </c>
-      <c r="G6">
-        <v>1.043553372248718</v>
-      </c>
-      <c r="H6">
+      <c r="L6">
+        <v>1.063957526224251</v>
+      </c>
+      <c r="M6">
+        <v>1.060214700148492</v>
+      </c>
+      <c r="N6">
         <v>1.014095739300114</v>
       </c>
-      <c r="I6">
+      <c r="O6">
         <v>1.052882448093351</v>
       </c>
-      <c r="J6">
-        <v>1.020919138245044</v>
-      </c>
-      <c r="M6">
-        <v>1.015809699007349</v>
-      </c>
-      <c r="N6">
-        <v>1.059993311907242</v>
+      <c r="P6">
+        <v>1.023651887618213</v>
       </c>
       <c r="Q6">
-        <v>1.015515467264238</v>
-      </c>
-      <c r="S6">
-        <v>1.041950747086506</v>
-      </c>
-      <c r="T6">
-        <v>1.045840879684255</v>
+        <v>1.05974459821305</v>
+      </c>
+      <c r="V6">
+        <v>1.026509463828153</v>
       </c>
       <c r="W6">
-        <v>1.068690316797116</v>
-      </c>
-      <c r="X6">
-        <v>1.033991602776766</v>
+        <v>1.053852910271052</v>
       </c>
       <c r="Y6">
-        <v>1.041591330654038</v>
+        <v>1.010044111810509</v>
+      </c>
+      <c r="Z6">
+        <v>1.024893942252311</v>
       </c>
       <c r="AA6">
-        <v>1.059807512589106</v>
-      </c>
-      <c r="AB6">
-        <v>0.9377801732396807</v>
+        <v>1.115852472695384</v>
       </c>
       <c r="AC6">
-        <v>1.013351261859429</v>
+        <v>0.8714220994040758</v>
       </c>
       <c r="AD6">
-        <v>1.004396052989996</v>
+        <v>1.072802492605296</v>
       </c>
       <c r="AE6">
-        <v>1.010746001564265</v>
+        <v>1.073363895116426</v>
+      </c>
+      <c r="AF6">
+        <v>1.016623782178275</v>
       </c>
       <c r="AG6">
-        <v>0.9931284594424352</v>
+        <v>1.13159126761407</v>
       </c>
       <c r="AH6">
-        <v>1.029299218492642</v>
+        <v>1.062655090805947</v>
+      </c>
+      <c r="AI6">
+        <v>1.094494426159823</v>
       </c>
       <c r="AJ6">
-        <v>1.038703165594018</v>
+        <v>1.043145934326206</v>
       </c>
       <c r="AK6">
-        <v>1.037042388968321</v>
+        <v>1.041708627076432</v>
+      </c>
+      <c r="AL6">
+        <v>1.086324180103069</v>
       </c>
       <c r="AM6">
-        <v>1.057402246961684</v>
+        <v>0.9625498107128759</v>
       </c>
       <c r="AN6">
-        <v>1.075964588874102</v>
+        <v>1.089966108224651</v>
       </c>
       <c r="AO6">
-        <v>1.03896254099976</v>
+        <v>1.077135396961435</v>
       </c>
       <c r="AP6">
-        <v>1.020320976504112</v>
+        <v>1.020580428458883</v>
       </c>
       <c r="AQ6">
-        <v>1.091862332911706</v>
+        <v>1.030190191771566</v>
       </c>
       <c r="AR6">
-        <v>1.082212138333113</v>
+        <v>1.025413005168212</v>
+      </c>
+      <c r="AS6">
+        <v>1.061381379468138</v>
+      </c>
+      <c r="AT6">
+        <v>1.076181450851232</v>
+      </c>
+      <c r="AU6">
+        <v>1.061388656741685</v>
       </c>
       <c r="AV6">
-        <v>0.9878976436818945</v>
+        <v>1.01305762173737</v>
       </c>
       <c r="AW6">
-        <v>1.068498824773541</v>
+        <v>1.140418454199069</v>
       </c>
       <c r="AX6">
-        <v>1.028182249262254</v>
+        <v>0.9973313589535913</v>
+      </c>
+      <c r="AY6">
+        <v>1.197042688393782</v>
+      </c>
+      <c r="AZ6">
+        <v>1.054624215758391</v>
       </c>
       <c r="BA6">
-        <v>1.052913302297073</v>
+        <v>1.044104706610618</v>
       </c>
       <c r="BB6">
-        <v>1.003450100991767</v>
+        <v>1.042871726946629</v>
+      </c>
+      <c r="BC6">
+        <v>1.046455789922365</v>
       </c>
       <c r="BD6">
-        <v>1.036643941976033</v>
+        <v>1.044698113456164</v>
       </c>
       <c r="BE6">
-        <v>1.06338032647</v>
+        <v>1.05306778309651</v>
       </c>
       <c r="BF6">
-        <v>1.024342382650371</v>
+        <v>1.027273844404881</v>
       </c>
       <c r="BG6">
-        <v>0.9985885150154918</v>
+        <v>0.9144582949542094</v>
+      </c>
+      <c r="BH6">
+        <v>1.053929081596716</v>
       </c>
       <c r="BI6">
-        <v>1.036430756676842</v>
+        <v>1.044834011226744</v>
       </c>
       <c r="BJ6">
-        <v>1.069622028220241</v>
+        <v>1.094549291889448</v>
+      </c>
+      <c r="BK6">
+        <v>1.000567174243636</v>
       </c>
       <c r="BL6">
-        <v>1.084027970324602</v>
+        <v>1.065850623932928</v>
+      </c>
+      <c r="BM6">
+        <v>0.8958353344281059</v>
+      </c>
+      <c r="BN6">
+        <v>1.118796464217978</v>
       </c>
       <c r="BO6">
-        <v>1.019086703884528</v>
+        <v>0.9439077499343411</v>
+      </c>
+      <c r="BP6">
+        <v>1.004411398981409</v>
+      </c>
+      <c r="BQ6">
+        <v>0.9912584616451124</v>
       </c>
       <c r="BR6">
-        <v>1.131194978175199</v>
+        <v>1.041619167723477</v>
       </c>
       <c r="BS6">
-        <v>1.085547554383707</v>
+        <v>1.071754444050593</v>
+      </c>
+      <c r="BT6">
+        <v>1.091850977228725</v>
       </c>
       <c r="BU6">
-        <v>1.085881403858726</v>
+        <v>1.031464844275404</v>
       </c>
       <c r="BV6">
-        <v>0.9920710384745665</v>
+        <v>1.008181923179397</v>
+      </c>
+      <c r="BW6">
+        <v>1.075595670143341</v>
       </c>
       <c r="BX6">
-        <v>1.037106921345264</v>
+        <v>1.115620290948009</v>
       </c>
       <c r="BY6">
-        <v>1.072056613125502</v>
+        <v>1.005515354245954</v>
+      </c>
+      <c r="BZ6">
+        <v>1.141652787673643</v>
       </c>
       <c r="CA6">
-        <v>0.9699444936662338</v>
+        <v>0.9506147090344348</v>
+      </c>
+      <c r="CB6">
+        <v>0.9694740849060294</v>
       </c>
       <c r="CC6">
-        <v>0.9961492219672604</v>
+        <v>0.9525644790360107</v>
       </c>
       <c r="CD6">
-        <v>1.063590997957675</v>
+        <v>1.005169266783238</v>
       </c>
       <c r="CE6">
-        <v>1.002711422396842</v>
+        <v>0.9580908344942409</v>
       </c>
       <c r="CF6">
-        <v>1.054180882094993</v>
+        <v>0.9620627429250587</v>
+      </c>
+      <c r="CG6">
+        <v>1.046792696587099</v>
       </c>
       <c r="CH6">
-        <v>1.025039004510633</v>
+        <v>1.037094783976257</v>
       </c>
       <c r="CI6">
-        <v>1.02817471714619</v>
+        <v>0.8987514265576416</v>
       </c>
       <c r="CJ6">
-        <v>1.057458080676693</v>
+        <v>0.9601763553099852</v>
       </c>
       <c r="CK6">
-        <v>1.039131223211286</v>
+        <v>1.04846964844197</v>
       </c>
       <c r="CL6">
-        <v>0.9564228262578446</v>
+        <v>1.053319434954222</v>
       </c>
       <c r="CM6">
-        <v>1.039509007845893</v>
+        <v>1.095560483555457</v>
       </c>
       <c r="CN6">
-        <v>1.038089259603119</v>
+        <v>0.9776380111121009</v>
+      </c>
+      <c r="CO6">
+        <v>1.052341856521781</v>
       </c>
       <c r="CP6">
-        <v>1.009948493495644</v>
+        <v>1.00214752965821</v>
       </c>
       <c r="CQ6">
-        <v>0.9991896964319551</v>
+        <v>1.161455189586631</v>
+      </c>
+      <c r="CR6">
+        <v>1.018977473670439</v>
       </c>
       <c r="CS6">
-        <v>1.029449905209186</v>
+        <v>1.043711600451974</v>
       </c>
       <c r="CT6">
-        <v>0.9761729505301247</v>
+        <v>0.8296414325547471</v>
+      </c>
+      <c r="CU6">
+        <v>1.046799411914074</v>
+      </c>
+      <c r="CV6">
+        <v>1.085850539412104</v>
+      </c>
+      <c r="CW6">
+        <v>1.05089438547997</v>
       </c>
     </row>
     <row r="7" spans="1:101">
       <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7">
+      <c r="C7">
+        <v>1.035399878470945</v>
+      </c>
+      <c r="D7">
+        <v>1.044612635593271</v>
+      </c>
+      <c r="E7">
         <v>1.03627434947013</v>
       </c>
-      <c r="C7">
+      <c r="F7">
+        <v>0.9611498777112267</v>
+      </c>
+      <c r="H7">
+        <v>1.045954440112881</v>
+      </c>
+      <c r="J7">
         <v>1.054400485020635</v>
       </c>
-      <c r="D7">
-        <v>1.031130336003703</v>
-      </c>
-      <c r="F7">
+      <c r="K7">
         <v>1.078597734610423</v>
       </c>
-      <c r="G7">
-        <v>1.059937702452299</v>
-      </c>
-      <c r="H7">
+      <c r="L7">
+        <v>1.081619533699157</v>
+      </c>
+      <c r="M7">
+        <v>1.071116696852892</v>
+      </c>
+      <c r="N7">
         <v>1.026296355265256</v>
       </c>
-      <c r="I7">
+      <c r="O7">
         <v>1.059956706297544</v>
       </c>
-      <c r="L7">
-        <v>1.042708894962742</v>
-      </c>
-      <c r="N7">
-        <v>1.013801902856399</v>
-      </c>
-      <c r="R7">
-        <v>1.052169277012754</v>
+      <c r="P7">
+        <v>1.059357508542219</v>
+      </c>
+      <c r="Q7">
+        <v>1.0140183720568</v>
       </c>
       <c r="T7">
-        <v>1.036106648256113</v>
+        <v>1.030347369811585</v>
+      </c>
+      <c r="U7">
+        <v>1.117772212809359</v>
       </c>
       <c r="V7">
-        <v>1.045152040497398</v>
-      </c>
-      <c r="X7">
-        <v>1.045954440112881</v>
+        <v>1.039884643784126</v>
+      </c>
+      <c r="W7">
+        <v>0.997300898227109</v>
       </c>
       <c r="Y7">
-        <v>1.075268395656029</v>
+        <v>0.9977046808992038</v>
       </c>
       <c r="Z7">
-        <v>1.01495099714428</v>
+        <v>1.066386936266368</v>
       </c>
       <c r="AA7">
-        <v>1.031637774849794</v>
+        <v>1.012231991017486</v>
       </c>
       <c r="AC7">
-        <v>1.034845701736014</v>
-      </c>
-      <c r="AD7">
-        <v>1.008876249115231</v>
+        <v>0.9050247575989093</v>
       </c>
       <c r="AE7">
-        <v>0.9921761562804132</v>
+        <v>1.015906667228496</v>
+      </c>
+      <c r="AF7">
+        <v>1.021477735405552</v>
+      </c>
+      <c r="AG7">
+        <v>1.107548807707736</v>
       </c>
       <c r="AH7">
-        <v>1.017038860251282</v>
+        <v>1.029791347893134</v>
       </c>
       <c r="AI7">
-        <v>1.08973626888492</v>
+        <v>1.06905451217734</v>
       </c>
       <c r="AJ7">
-        <v>1.031638661075374</v>
+        <v>1.03680670678464</v>
       </c>
       <c r="AK7">
-        <v>1.051559905962361</v>
+        <v>1.024989508522858</v>
       </c>
       <c r="AL7">
-        <v>1.016957049436039</v>
+        <v>1.108517034935127</v>
       </c>
       <c r="AM7">
-        <v>1.035575302638853</v>
+        <v>0.9874954726897294</v>
       </c>
       <c r="AO7">
-        <v>1.003256358082729</v>
+        <v>1.062536278349883</v>
       </c>
       <c r="AP7">
-        <v>1.011975170996501</v>
+        <v>1.037979376031887</v>
       </c>
       <c r="AQ7">
-        <v>1.104075795759828</v>
+        <v>1.074814442015695</v>
       </c>
       <c r="AR7">
-        <v>1.054052414567215</v>
+        <v>1.074195560624278</v>
+      </c>
+      <c r="AS7">
+        <v>1.039888578250072</v>
       </c>
       <c r="AT7">
-        <v>0.9881741487083561</v>
+        <v>1.05303546516083</v>
+      </c>
+      <c r="AU7">
+        <v>1.03913612564716</v>
       </c>
       <c r="AV7">
-        <v>1.000324616473615</v>
+        <v>1.016409095828756</v>
       </c>
       <c r="AW7">
-        <v>1.093273875393296</v>
+        <v>1.124512676431209</v>
       </c>
       <c r="AX7">
-        <v>0.9892951923898474</v>
+        <v>1.03709383032713</v>
+      </c>
+      <c r="AY7">
+        <v>1.208973000222877</v>
       </c>
       <c r="AZ7">
-        <v>1.082938003837569</v>
+        <v>1.139613810218478</v>
       </c>
       <c r="BA7">
-        <v>1.067218832263727</v>
+        <v>1.095046694915104</v>
       </c>
       <c r="BB7">
-        <v>1.022479226318322</v>
+        <v>1.050405688773584</v>
       </c>
       <c r="BC7">
-        <v>1.051757208094465</v>
+        <v>1.087315885351109</v>
+      </c>
+      <c r="BD7">
+        <v>1.097892166765125</v>
       </c>
       <c r="BE7">
-        <v>1.078434004182664</v>
+        <v>1.06665538032077</v>
       </c>
       <c r="BF7">
-        <v>1.038236486031375</v>
+        <v>1.075722519452238</v>
       </c>
       <c r="BG7">
-        <v>1.010671461670963</v>
+        <v>0.9638330749288503</v>
+      </c>
+      <c r="BH7">
+        <v>1.068784172490657</v>
       </c>
       <c r="BI7">
-        <v>1.075077518965616</v>
+        <v>1.059251267907242</v>
       </c>
       <c r="BJ7">
-        <v>1.094919372988839</v>
+        <v>1.118683525215895</v>
+      </c>
+      <c r="BK7">
+        <v>1.010524380703273</v>
       </c>
       <c r="BL7">
-        <v>1.121669389173113</v>
+        <v>1.107080650232501</v>
       </c>
       <c r="BM7">
-        <v>1.118817845162769</v>
+        <v>0.9503791973696024</v>
+      </c>
+      <c r="BN7">
+        <v>1.134703226376201</v>
+      </c>
+      <c r="BO7">
+        <v>1.001386691928779</v>
+      </c>
+      <c r="BP7">
+        <v>1.020229608029774</v>
+      </c>
+      <c r="BQ7">
+        <v>1.114294640580456</v>
       </c>
       <c r="BR7">
-        <v>1.134819253927838</v>
+        <v>1.045286812841212</v>
       </c>
       <c r="BS7">
-        <v>1.10957605774282</v>
+        <v>1.086629171651882</v>
       </c>
       <c r="BT7">
-        <v>0.9837056755678245</v>
+        <v>1.137079543683998</v>
       </c>
       <c r="BU7">
-        <v>1.103270207381394</v>
+        <v>1.053214221689238</v>
       </c>
       <c r="BV7">
-        <v>1.037077414103918</v>
+        <v>1.023071021101112</v>
       </c>
       <c r="BW7">
-        <v>1.100724944746804</v>
+        <v>1.076400954970507</v>
       </c>
       <c r="BX7">
-        <v>1.053248462698525</v>
-      </c>
-      <c r="CA7">
-        <v>0.984433877894303</v>
+        <v>1.127368166071058</v>
+      </c>
+      <c r="BY7">
+        <v>1.012272643792349</v>
+      </c>
+      <c r="BZ7">
+        <v>1.167064411794583</v>
       </c>
       <c r="CB7">
-        <v>1.023529606885568</v>
+        <v>0.9836785074164043</v>
       </c>
       <c r="CC7">
-        <v>0.9947346242630273</v>
+        <v>0.9498589772748197</v>
       </c>
       <c r="CD7">
-        <v>1.0800447230562</v>
+        <v>1.016008715079014</v>
       </c>
       <c r="CE7">
-        <v>1.02576702610736</v>
+        <v>0.9962661673541308</v>
       </c>
       <c r="CF7">
-        <v>1.044830192515123</v>
+        <v>0.9997858772597276</v>
       </c>
       <c r="CG7">
-        <v>1.051185180700135</v>
+        <v>1.063023168682232</v>
       </c>
       <c r="CH7">
-        <v>1.029717941467565</v>
-      </c>
-      <c r="CJ7">
-        <v>1.100054125203908</v>
+        <v>1.044241801304371</v>
+      </c>
+      <c r="CI7">
+        <v>0.897171531842893</v>
       </c>
       <c r="CK7">
-        <v>1.055889708638974</v>
+        <v>1.078985121015686</v>
+      </c>
+      <c r="CL7">
+        <v>1.05863357131392</v>
       </c>
       <c r="CM7">
-        <v>1.07247829812772</v>
+        <v>1.11969990160656</v>
       </c>
       <c r="CN7">
-        <v>1.046025088146496</v>
+        <v>1.001815806714253</v>
+      </c>
+      <c r="CO7">
+        <v>1.06904570948768</v>
       </c>
       <c r="CP7">
-        <v>1.064551560099274</v>
+        <v>1.042535777154465</v>
       </c>
       <c r="CQ7">
-        <v>0.9979188650877479</v>
+        <v>1.194149743259397</v>
+      </c>
+      <c r="CR7">
+        <v>1.025200303908818</v>
       </c>
       <c r="CS7">
-        <v>1.030712994211702</v>
+        <v>1.040301246185123</v>
+      </c>
+      <c r="CT7">
+        <v>0.9473823202195726</v>
+      </c>
+      <c r="CU7">
+        <v>1.068230496296562</v>
+      </c>
+      <c r="CV7">
+        <v>1.080638403033396</v>
       </c>
       <c r="CW7">
-        <v>0.9670710482762775</v>
+        <v>1.085983881509538</v>
       </c>
     </row>
   </sheetData>
